--- a/biology/Histoire de la zoologie et de la botanique/Christian_Bräuchler/Christian_Bräuchler.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Christian_Bräuchler/Christian_Bräuchler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Christian_Br%C3%A4uchler</t>
+          <t>Christian_Bräuchler</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Christian Bräuchler (né en 1975) est un botaniste allemand[1] et chercheur dans la famille de Lamiaceae du genre Clinopodium, collectionnant également Filicophyta[2] venant d'Europe (Allemagne, Autriche, Grèce, Italie, Monaco), d'Indochine (Laos, Thaïlande, Vietnam) d'Afrique tropicale (Cameroun) et d'Afrique du Sud[3].
-Il travaille au département de biologie I de l'université de Munich[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christian Bräuchler (né en 1975) est un botaniste allemand et chercheur dans la famille de Lamiaceae du genre Clinopodium, collectionnant également Filicophyta venant d'Europe (Allemagne, Autriche, Grèce, Italie, Monaco), d'Indochine (Laos, Thaïlande, Vietnam) d'Afrique tropicale (Cameroun) et d'Afrique du Sud.
+Il travaille au département de biologie I de l'université de Munich.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Christian_Br%C3%A4uchler</t>
+          <t>Christian_Bräuchler</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Écrits notables</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>2012 : C. Carbutt, C. Bräuchler. The Rediscovery of Killickia Grandiflora (Lamiaceae), A Narrow Endemic from the Northern KwaZulu-Natal Drakensberg. Plant Life 41/42: 40-45
 2013 : S.S. Cohen, C. Bräuchler. Heliotropium ovalifolium Forssk. In Raab-Straube E. von &amp; Raus Th. (eds.) Euro+Med-Checklist Notulae, 2 [Notulae ad floram euro-mediterraneam pertinentes 31]. Willdenowia 43: 240
